--- a/pred_ohlcv/54_21/2020-01-13 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ETH ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>306.24978171822</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>546.47978171822</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>534.2621817182201</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>534.2711817182201</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>523.07938171822</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>538.5936817182201</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>722.6773817182201</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>711.2131817182201</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>693.87548171822</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>708.3358817182201</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>716.3070171387235</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>715.6695171387234</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>700.7117171387234</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>700.7117171387234</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>698.2058171387234</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>700.2201171387235</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>693.4192171387235</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>714.2901171387235</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>745.5841171387235</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>748.2503171387235</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>940.5179817182201</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>936.41628171822</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>949.37328171822</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1258.64068171822</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1272.71478171822</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1272.71478171822</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2182.96488171822</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2131.121588999773</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2652.088088999773</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3073.974088999773</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3542.883988999773</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3461.563988999773</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3021.677888999773</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2988.431988999773</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2988.412988999773</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2995.545088999773</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2995.545088999773</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2989.918188999773</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2992.785888999772</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2995.624188999772</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2994.908388999772</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2994.908388999772</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2988.804488999772</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>2984.771988999772</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1639.307808724414</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1639.307808724414</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1673.617008724414</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2789.334797915083</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2789.334797915083</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2795.098462218261</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2795.098462218261</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2795.881462218261</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2726.530762218261</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2890.436962218261</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>3037.127562218261</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>3033.512462218261</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>3012.418762218261</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>3056.278590111075</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>3042.072090111074</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>3041.942490111074</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>3047.552618237981</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>3040.771918237981</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>3021.639918237981</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>3023.500718237981</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>3015.009818237981</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>3013.763518237981</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>3013.263518237981</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3013.472118237981</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3013.472118237981</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3023.629618237981</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3023.629618237981</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>3019.799718237981</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>3021.863318237981</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>3018.312218237981</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>3026.308018237981</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>3047.265718237981</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>3046.003118237981</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>3050.582718237981</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2721.628727591843</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2721.628727591843</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2711.628727591843</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2706.657127591843</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2706.657127591843</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2892.084978293416</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2884.894376341006</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>2884.894376341006</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>2882.086176341006</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>2462.726858954233</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>2449.337158954233</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>2568.156958954233</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>2568.156958954233</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>2480.262958954233</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>2494.466358954233</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>2469.07415681356</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>2469.07415681356</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>2475.17505681356</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>2460.17505681356</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>2465.76745681356</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>2452.95015681356</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>2442.24445681356</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>2442.24445681356</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>2445.98325681356</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>2448.84537530713</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>2448.84537530713</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>2539.02497530713</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>2539.02497530713</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>2536.58577530713</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>2533.59107530713</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>2546.18187530713</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>2546.18187530713</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>2505.18187530713</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>2505.17877530713</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>2505.17877530713</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ETH ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>306.24978171822</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>546.47978171822</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>534.2621817182201</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>534.2711817182201</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>523.07938171822</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>538.5936817182201</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>722.6773817182201</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>693.87548171822</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>708.3358817182201</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>716.3070171387235</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>715.6695171387234</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>700.7117171387234</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>700.7117171387234</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>698.2058171387234</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>700.2201171387235</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>693.4192171387235</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>714.2901171387235</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>745.5841171387235</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>770.9248171387235</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>748.2503171387235</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>940.5179817182201</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>936.41628171822</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>949.37328171822</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1258.64068171822</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1272.71478171822</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1272.71478171822</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2182.96488171822</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2131.121588999773</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2652.088088999773</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3073.974088999773</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3166.770988999773</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3542.883988999773</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3542.883988999773</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3461.563988999773</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3021.677888999773</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2988.431988999773</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>2988.412988999773</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>2995.545088999773</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2995.545088999773</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>2989.918188999773</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>2992.785888999772</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2995.624188999772</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2994.908388999772</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2994.908388999772</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>2789.334797915083</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>2789.334797915083</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>2795.098462218261</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>2795.098462218261</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>2795.881462218261</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>2726.530762218261</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>2890.436962218261</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>3037.127562218261</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>3033.512462218261</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>3012.418762218261</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>3056.278590111075</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>3054.087190111075</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>3042.072090111074</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>3041.942490111074</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>3047.552618237981</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>3047.230918237981</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>3040.771918237981</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>3021.639918237981</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>3023.500718237981</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>3015.009818237981</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>3013.763518237981</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>3013.263518237981</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3013.472118237981</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3013.472118237981</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3023.629618237981</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3023.629618237981</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>3019.799718237981</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>3021.863318237981</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>3018.312218237981</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>3026.308018237981</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>3047.265718237981</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>3046.003118237981</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>3050.582718237981</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>2721.628727591843</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>2721.628727591843</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>2711.628727591843</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>2706.657127591843</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>2706.657127591843</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>2697.662927591843</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>2892.084978293416</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>2884.894376341006</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>2884.894376341006</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>2882.086176341006</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>2462.726858954233</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>2449.337158954233</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>2568.156958954233</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>2568.156958954233</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>2480.262958954233</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>2494.466358954233</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>2469.07415681356</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>2469.07415681356</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>2475.17505681356</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>2460.17505681356</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>2465.76745681356</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>2452.95015681356</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>2442.24445681356</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>2442.24445681356</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>2445.98325681356</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>2448.84537530713</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>2448.84537530713</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>2539.02497530713</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>2539.02497530713</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>2536.58577530713</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>2533.59107530713</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>2546.18187530713</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>2546.18187530713</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>2505.18187530713</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>2505.17877530713</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>2505.17877530713</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
